--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>vegas</t>
   </si>
@@ -87,12 +87,6 @@
     <t>over/under</t>
   </si>
   <si>
-    <t>calc</t>
-  </si>
-  <si>
-    <t>clo_co</t>
-  </si>
-  <si>
     <t>W scores</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>Favorit</t>
+  </si>
+  <si>
+    <t>calc&gt;cosco</t>
+  </si>
+  <si>
+    <t>calc-&gt;cosco</t>
   </si>
 </sst>
 </file>
@@ -634,35 +634,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="10" width="9.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="3.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="1"/>
-    <col min="23" max="26" width="3.625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11" style="1"/>
+    <col min="14" max="14" width="3.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
+    <col min="16" max="20" width="3.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="1" customWidth="1"/>
+    <col min="25" max="28" width="3.625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -671,66 +669,68 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6">
+        <f>S28</f>
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6">
+        <f>AB28</f>
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>-9</v>
@@ -746,7 +746,8 @@
         <f>(D2+C2)/2-C2</f>
         <v>25</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
+        <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="P14"/>
         <v>24</v>
       </c>
       <c r="H2" s="4" t="str">
@@ -757,70 +758,71 @@
         <f>(D2+C2)/2</f>
         <v>16</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2">
+        <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="Y14"/>
         <v>16</v>
       </c>
       <c r="L2" s="1">
-        <f>S2</f>
+        <f>Q2</f>
         <v>17</v>
       </c>
       <c r="M2" s="10">
-        <f>INDEX(U$2:U$12,$T2)</f>
+        <f>INDEX(S$2:S$12,$R2)</f>
         <v>21</v>
       </c>
-      <c r="N2" s="1">
-        <f>X2</f>
+      <c r="O2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1">
+        <f>VALUE(LEFT(O2,5))</f>
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>17</v>
+      </c>
+      <c r="R2" s="1">
+        <f>MATCH(Q2,P$2:P$12,0)</f>
+        <v>7</v>
+      </c>
+      <c r="S2" s="1">
+        <f>VALUE(RIGHT(O2,2))</f>
+        <v>45</v>
+      </c>
+      <c r="U2" s="1">
+        <f>Z2</f>
         <v>3</v>
       </c>
-      <c r="O2" s="10">
-        <f>INDEX(Z$2:Z$12,$Y2)</f>
+      <c r="V2" s="10">
+        <f>INDEX(AB$2:AB$12,$AA2)</f>
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1">
-        <f>VALUE(LEFT(Q2,5))</f>
-        <v>27</v>
-      </c>
-      <c r="S2" s="1">
-        <f>SMALL(R$2:R$12,ROW()-1)</f>
-        <v>17</v>
-      </c>
-      <c r="T2" s="1">
-        <f>MATCH(S2,R$2:R$12,0)</f>
+      <c r="X2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>VALUE(LEFT(X2,5))</f>
+        <v>10</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>MATCH(Z2,Y$2:Y$12,0)</f>
         <v>7</v>
       </c>
-      <c r="U2" s="1">
-        <f>VALUE(RIGHT(Q2,2))</f>
-        <v>45</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="1">
-        <f>VALUE(LEFT(V2,5))</f>
-        <v>10</v>
-      </c>
-      <c r="X2" s="1">
-        <f>SMALL(W$2:W$12,ROW()-1)</f>
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1">
-        <f>MATCH(X2,W$2:W$12,0)</f>
-        <v>7</v>
-      </c>
-      <c r="Z2" s="1">
-        <f>VALUE(RIGHT(V2,2))</f>
+      <c r="AB2" s="1">
+        <f>VALUE(RIGHT(X2,2))</f>
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>-6</v>
@@ -836,7 +838,7 @@
         <f t="shared" ref="F3:F5" si="1">(D3+C3)/2-C3</f>
         <v>27</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <v>27</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -847,70 +849,70 @@
         <f t="shared" ref="I3:I5" si="3">(D3+C3)/2</f>
         <v>21</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3">
         <v>21</v>
       </c>
       <c r="L3" s="1">
-        <f>S3</f>
+        <f>Q3</f>
         <v>19</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M12" si="4">INDEX(U$2:U$12,$T3)</f>
+        <f>INDEX(S$2:S$12,$R3)</f>
         <v>19</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="5">X3</f>
+      <c r="O3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P12" si="4">VALUE(LEFT(O3,5))</f>
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>19</v>
+      </c>
+      <c r="R3" s="1">
+        <f>MATCH(Q3,P$2:P$12,0)</f>
+        <v>8</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S12" si="5">VALUE(RIGHT(O3,2))</f>
+        <v>39</v>
+      </c>
+      <c r="U3" s="1">
+        <f>Z3</f>
         <v>9</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O12" si="6">INDEX(Z$2:Z$12,$Y3)</f>
+      <c r="V3" s="10">
+        <f>INDEX(AB$2:AB$12,$AA3)</f>
         <v>20</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1">
-        <f t="shared" ref="R3:R12" si="7">VALUE(LEFT(Q3,5))</f>
-        <v>20</v>
-      </c>
-      <c r="S3" s="1">
-        <f t="shared" ref="S3:S12" si="8">SMALL(R$2:R$12,ROW()-1)</f>
-        <v>19</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3:T12" si="9">MATCH(S3,R$2:R$12,0)</f>
-        <v>8</v>
-      </c>
-      <c r="U3" s="1">
-        <f t="shared" ref="U3:U12" si="10">VALUE(RIGHT(Q3,2))</f>
-        <v>39</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y12" si="6">VALUE(LEFT(X3,5))</f>
         <v>17</v>
       </c>
-      <c r="W3" s="1">
-        <f t="shared" ref="W3:W12" si="11">VALUE(LEFT(V3,5))</f>
-        <v>17</v>
-      </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X12" si="12">SMALL(W$2:W$12,ROW()-1)</f>
+      <c r="Z3" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
         <v>9</v>
       </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y12" si="13">MATCH(X3,W$2:W$12,0)</f>
+      <c r="AA3" s="1">
+        <f>MATCH(Z3,Y$2:Y$12,0)</f>
         <v>9</v>
       </c>
-      <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z12" si="14">VALUE(RIGHT(V3,2))</f>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB12" si="7">VALUE(RIGHT(X3,2))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>-7</v>
@@ -926,7 +928,7 @@
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="str">
@@ -937,70 +939,70 @@
         <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4">
         <v>17</v>
       </c>
       <c r="L4" s="1">
-        <f>S4</f>
+        <f>Q4</f>
         <v>20</v>
       </c>
       <c r="M4" s="10">
+        <f>INDEX(S$2:S$12,$R4)</f>
+        <v>39</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>20</v>
+      </c>
+      <c r="R4" s="1">
+        <f>MATCH(Q4,P$2:P$12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="U4" s="1">
+        <f>Z4</f>
+        <v>10</v>
+      </c>
+      <c r="V4" s="10">
+        <f>INDEX(AB$2:AB$12,$AA4)</f>
+        <v>57</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>10</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>MATCH(Z4,Y$2:Y$12,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="1">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="X4" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="Y4" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
         <v>-3</v>
@@ -1016,7 +1018,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>24</v>
       </c>
       <c r="H5" s="4" t="str">
@@ -1027,296 +1029,296 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5">
         <v>21</v>
       </c>
       <c r="L5" s="1">
-        <f>S5</f>
+        <f>Q5</f>
         <v>21</v>
       </c>
       <c r="M5" s="10">
+        <f>INDEX(S$2:S$12,$R5)</f>
+        <v>17</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>21</v>
+      </c>
+      <c r="R5" s="1">
+        <f>MATCH(Q5,P$2:P$12,0)</f>
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="U5" s="1">
+        <f>Z5</f>
+        <v>13</v>
+      </c>
+      <c r="V5" s="10">
+        <f>INDEX(AB$2:AB$12,$AA5)</f>
+        <v>33</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>13</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>MATCH(Z5,Y$2:Y$12,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <f>Q6</f>
+        <v>23</v>
+      </c>
+      <c r="M6" s="10">
+        <f>INDEX(S$2:S$12,$R6)</f>
+        <v>26</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>23</v>
+      </c>
+      <c r="R6" s="1">
+        <f>MATCH(Q6,P$2:P$12,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="U6" s="1">
+        <f>Z6</f>
+        <v>14</v>
+      </c>
+      <c r="V6" s="10">
+        <f>INDEX(AB$2:AB$12,$AA6)</f>
+        <v>22</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>14</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>MATCH(Z6,Y$2:Y$12,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L7" s="1">
+        <f>Q7</f>
+        <v>24</v>
+      </c>
+      <c r="M7" s="10">
+        <f>INDEX(S$2:S$12,$R7)</f>
+        <v>33</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>24</v>
+      </c>
+      <c r="R7" s="1">
+        <f>MATCH(Q7,P$2:P$12,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="U7" s="1">
+        <f>Z7</f>
+        <v>16</v>
+      </c>
+      <c r="V7" s="10">
+        <f>INDEX(AB$2:AB$12,$AA7)</f>
+        <v>39</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>16</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>MATCH(Z7,Y$2:Y$12,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <f>Q8</f>
+        <v>27</v>
+      </c>
+      <c r="M8" s="10">
+        <f>INDEX(S$2:S$12,$R8)</f>
+        <v>45</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q8" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>27</v>
+      </c>
+      <c r="R8" s="1">
+        <f>MATCH(Q8,P$2:P$12,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="O5" s="10">
+        <v>21</v>
+      </c>
+      <c r="U8" s="1">
+        <f>Z8</f>
+        <v>17</v>
+      </c>
+      <c r="V8" s="10">
+        <f>INDEX(AB$2:AB$12,$AA8)</f>
+        <v>50</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>17</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>MATCH(Z8,Y$2:Y$12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="Y5" s="1">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L6" s="1">
-        <f>S6</f>
-        <v>23</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="Y6" s="1">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L7" s="1">
-        <f>S7</f>
-        <v>24</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="Y7" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L8" s="1">
-        <f>S8</f>
-        <v>27</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W8" s="1">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="X8" s="1">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
         <v>BUF 24-16</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="1">
-        <f>S9</f>
+        <f>Q9</f>
         <v>28</v>
       </c>
       <c r="M9" s="10">
+        <f>INDEX(S$2:S$12,$R9)</f>
+        <v>17</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="N9" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>28</v>
+      </c>
+      <c r="R9" s="1">
+        <f>MATCH(Q9,P$2:P$12,0)</f>
+        <v>11</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="U9" s="1">
+        <f>Z9</f>
         <v>20</v>
       </c>
-      <c r="O9" s="10">
+      <c r="V9" s="10">
+        <f>INDEX(AB$2:AB$12,$AA9)</f>
+        <v>35</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>20</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>MATCH(Z9,Y$2:Y$12,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB9" s="1">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="X9" s="1">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="Y9" s="1">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="14"/>
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
-        <f t="shared" ref="B10:B12" si="15">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
+        <f t="shared" ref="B10:B12" si="8">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
         <v>KC  27-21</v>
       </c>
       <c r="C10" s="9" t="str">
@@ -1324,63 +1326,63 @@
         <v>BUF 24-16, KC  27-21</v>
       </c>
       <c r="L10" s="1">
-        <f>S10</f>
+        <f>Q10</f>
         <v>30</v>
       </c>
       <c r="M10" s="10">
+        <f>INDEX(S$2:S$12,$R10)</f>
+        <v>27</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="N10" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>30</v>
+      </c>
+      <c r="R10" s="1">
+        <f>MATCH(Q10,P$2:P$12,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="U10" s="1">
+        <f>Z10</f>
         <v>21</v>
       </c>
-      <c r="O10" s="10">
+      <c r="V10" s="10">
+        <f>INDEX(AB$2:AB$12,$AA10)</f>
+        <v>17</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>21</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>MATCH(Z10,Y$2:Y$12,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="S10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="X10" s="1">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="15"/>
         <v>SF  27-17</v>
       </c>
       <c r="C11" s="9" t="str">
@@ -1388,63 +1390,63 @@
         <v>BUF 24-16, KC  27-21, SF  27-17</v>
       </c>
       <c r="L11" s="1">
-        <f>S11</f>
+        <f>Q11</f>
         <v>31</v>
       </c>
       <c r="M11" s="10">
+        <f>INDEX(S$2:S$12,$R11)</f>
+        <v>30</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="N11" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>31</v>
+      </c>
+      <c r="R11" s="1">
+        <f>MATCH(Q11,P$2:P$12,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="U11" s="1">
+        <f>Z11</f>
         <v>23</v>
       </c>
-      <c r="O11" s="10">
+      <c r="V11" s="10">
+        <f>INDEX(AB$2:AB$12,$AA11)</f>
+        <v>18</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>23</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>MATCH(Z11,Y$2:Y$12,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="S11" s="1">
+    </row>
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="X11" s="1">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="15"/>
         <v>LAR 24-21</v>
       </c>
       <c r="C12" s="9" t="str">
@@ -1452,63 +1454,455 @@
         <v>BUF 24-16, KC  27-21, SF  27-17, LAR 24-21</v>
       </c>
       <c r="L12" s="1">
-        <f>S12</f>
+        <f>Q12</f>
         <v>34</v>
       </c>
       <c r="M12" s="10">
+        <f>INDEX(S$2:S$12,$R12)</f>
+        <v>19</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="N12" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>SMALL(P$2:P$12,ROW()-1)</f>
+        <v>34</v>
+      </c>
+      <c r="R12" s="1">
+        <f>MATCH(Q12,P$2:P$12,0)</f>
+        <v>9</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="U12" s="1">
+        <f>Z12</f>
         <v>24</v>
       </c>
-      <c r="O12" s="10">
+      <c r="V12" s="10">
+        <f>INDEX(AB$2:AB$12,$AA12)</f>
+        <v>26</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="1">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>SMALL(Y$2:Y$12,ROW()-1)</f>
+        <v>24</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>MATCH(Z12,Y$2:Y$12,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="X12" s="1">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P14" s="1">
         <v>24</v>
       </c>
-      <c r="Y12" s="1">
-        <f t="shared" si="13"/>
+      <c r="Y14" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P16" s="1">
+        <f>ABS(L2-P$14)</f>
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>(P16=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <f>Q16*M2</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <f>(R16=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>ABS(U2-Y$14)</f>
+        <v>13</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>(Y16=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>Z16*V2</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>(AA16=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P17" s="1">
+        <f>ABS(L3-P$14)</f>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>(P17=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <f>Q17*M3</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f>(R17=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>ABS(U3-Y$14)</f>
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>(Y17=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>Z17*V3</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>(AA17=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P18" s="1">
+        <f>ABS(L4-P$14)</f>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>(P18=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <f>Q18*M4</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <f>(R18=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>ABS(U4-Y$14)</f>
         <v>6</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="14"/>
-        <v>17</v>
+      <c r="Z18" s="1">
+        <f>(Y18=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>Z18*V4</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>(AA18=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P19" s="1">
+        <f>ABS(L5-P$14)</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>(P19=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f>Q19*M5</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f>(R19=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>ABS(U5-Y$14)</f>
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>(Y19=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>Z19*V5</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>(AA19=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P20" s="1">
+        <f>ABS(L6-P$14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>(P20=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <f>Q20*M6</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <f>(R20=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>ABS(U6-Y$14)</f>
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>(Y20=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>Z20*V6</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>(AA20=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P21" s="1">
+        <f>ABS(L7-P$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>(P21=MIN(P$16:P$26))*1</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <f>Q21*M7</f>
+        <v>33</v>
+      </c>
+      <c r="S21" s="1">
+        <f>(R21=MAX(R$16:R$26))*1</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>ABS(U7-Y$14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>(Y21=MIN(Y$16:Y$26))*1</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>Z21*V7</f>
+        <v>39</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>(AA21=MAX(AA$16:AA$26))*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P22" s="1">
+        <f>ABS(L8-P$14)</f>
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>(P22=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <f>Q22*M8</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <f>(R22=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>ABS(U8-Y$14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>(Y22=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>Z22*V8</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f>(AA22=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P23" s="1">
+        <f>ABS(L9-P$14)</f>
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>(P23=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <f>Q23*M9</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <f>(R23=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>ABS(U9-Y$14)</f>
+        <v>4</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>(Y23=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>Z23*V9</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f>(AA23=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P24" s="1">
+        <f>ABS(L10-P$14)</f>
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>(P24=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <f>Q24*M10</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <f>(R24=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>ABS(U10-Y$14)</f>
+        <v>5</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>(Y24=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>Z24*V10</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <f>(AA24=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <f>ABS(L11-P$14)</f>
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>(P25=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <f>Q25*M11</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <f>(R25=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>ABS(U11-Y$14)</f>
+        <v>7</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>(Y25=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>Z25*V11</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>(AA25=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P26" s="1">
+        <f>ABS(L12-P$14)</f>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>(P26=MIN(P$16:P$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <f>Q26*M12</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <f>(R26=MAX(R$16:R$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>ABS(U12-Y$14)</f>
+        <v>8</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>(Y26=MIN(Y$16:Y$26))*1</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>Z26*V12</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <f>(AA26=MAX(AA$16:AA$26))*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="S28" s="1">
+        <f>SUMPRODUCT(L2:L12,S16:S26)</f>
+        <v>24</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>SUMPRODUCT(U2:U12,AB16:AB26)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="N2:N12">
-    <sortCondition ref="N2"/>
+  <sortState ref="U2:U12">
+    <sortCondition ref="U2"/>
   </sortState>
   <conditionalFormatting sqref="M2:M12">
     <cfRule type="colorScale" priority="2">
@@ -1522,7 +1916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P12">
+  <conditionalFormatting sqref="V2:V12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE684127-59A7-419C-88F5-56E4C54F69BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,12 +79,6 @@
     <t>LAR</t>
   </si>
   <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF </t>
-  </si>
-  <si>
     <t xml:space="preserve">  24   26</t>
   </si>
   <si>
@@ -158,9 +151,6 @@
     <t xml:space="preserve">  31   32</t>
   </si>
   <si>
-    <t xml:space="preserve">  30   28</t>
-  </si>
-  <si>
     <t xml:space="preserve">  23   24</t>
   </si>
   <si>
@@ -176,15 +166,9 @@
     <t xml:space="preserve">  10   56</t>
   </si>
   <si>
-    <t xml:space="preserve">  17   52</t>
-  </si>
-  <si>
     <t xml:space="preserve">  16   38</t>
   </si>
   <si>
-    <t xml:space="preserve">  13   34</t>
-  </si>
-  <si>
     <t xml:space="preserve">  20   34</t>
   </si>
   <si>
@@ -192,12 +176,27 @@
   </si>
   <si>
     <t xml:space="preserve">  21   16</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -648,29 +647,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="3">
         <f>Q28</f>
         <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="3">
         <f>X28</f>
@@ -678,36 +677,36 @@
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="X1" s="12"/>
     </row>
@@ -716,25 +715,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D2" s="6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>BUF</v>
+        <v>MIA</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -742,14 +741,14 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -772,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -803,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D3" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -825,13 +824,13 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -854,7 +853,7 @@
         <v>20</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -866,7 +865,7 @@
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
@@ -882,38 +881,38 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>44</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">SF </v>
+        <v>MIN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>25.5</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>MIN</v>
+        <v>Opp</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="J4" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -936,7 +935,7 @@
         <v>40</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -956,7 +955,7 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -964,38 +963,38 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D5" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>LAR</v>
+        <v>DAL</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>LAR</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1018,15 +1017,15 @@
         <v>17</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
@@ -1043,7 +1042,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1055,7 +1054,7 @@
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
@@ -1066,11 +1065,11 @@
         <v>24</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="2"/>
@@ -1078,7 +1077,7 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1091,7 +1090,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1114,7 +1113,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1139,7 +1138,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1162,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1188,10 +1187,10 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>BUF 24-16</v>
+        <v>MIA 30-17</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1211,10 +1210,10 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1222,7 +1221,7 @@
       </c>
       <c r="U9" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
@@ -1234,20 +1233,20 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC  27-21</v>
+        <v>KC  27-20</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>BUF 24-16, KC  27-21</v>
+        <v>MIA 30-17, KC  27-20</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
@@ -1270,7 +1269,7 @@
         <v>32</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
@@ -1296,14 +1295,14 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>SF  27-17</v>
+        <v>MIN 23-21</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>BUF 24-16, KC  27-21, SF  27-17</v>
+        <v>MIA 30-17, KC  27-20, MIN 23-21</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
@@ -1326,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
@@ -1352,14 +1351,14 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 24-21</v>
+        <v>DAL 27-20</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>BUF 24-16, KC  27-21, SF  27-17, LAR 24-21</v>
+        <v>MIA 30-17, KC  27-20, MIN 23-21, DAL 27-20</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
@@ -1382,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
@@ -1407,24 +1406,24 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N14" s="4">
         <v>21</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="T14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U14" s="4">
         <v>21</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -1805,14 +1804,14 @@
     </row>
     <row r="28" spans="14:24" x14ac:dyDescent="0.2">
       <c r="P28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q28" s="4">
         <f>SUMPRODUCT(P2:P12,Q16:Q26)</f>
         <v>21</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X28" s="4">
         <f>SUMPRODUCT(W2:W12,X16:X26)</f>
@@ -1820,7 +1819,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
+  <sortState ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -49,8 +49,8 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Die elf häufigsten W scores der letzten 500 non tied RS games
-results |&gt; filter(Result == "W", Week &lt; 30) |&gt; tail(500) |&gt; pull(PF) |&gt; table() |&gt; sort(decreasing = T) |&gt; t() |&gt; t() |&gt; head(11)</t>
+          <t>Die elf häufigsten W scores der letzten 750 non tied RS games
+results |&gt; filter(Result == "W", Week &lt; 30) |&gt; tail(750) |&gt; pull(PF) |&gt; table() |&gt; sort(decreasing = T) |&gt; t() |&gt; t() |&gt; head(11)</t>
         </r>
       </text>
     </comment>
@@ -79,24 +79,6 @@
     <t>LAR</t>
   </si>
   <si>
-    <t xml:space="preserve">  24   26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14   22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9    20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  23   18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21   17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   21</t>
-  </si>
-  <si>
     <t>Fav</t>
   </si>
   <si>
@@ -139,58 +121,76 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t xml:space="preserve">  27   44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  31   32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  23   24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  19   20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  34   18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  37   17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10   56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  16   38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3    21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21   16</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t xml:space="preserve">  30   27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   33</t>
+    <t xml:space="preserve">  27   68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23   39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  26   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7    28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9    25</t>
   </si>
 </sst>
 </file>
@@ -647,29 +647,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3">
         <f>Q28</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3">
         <f>X28</f>
@@ -677,36 +677,36 @@
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X1" s="12"/>
     </row>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6">
         <v>-13</v>
@@ -748,7 +748,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -756,11 +756,11 @@
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N12" si="0">MATCH(P2,M$2:M$12,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -768,14 +768,14 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" ref="U2:U12" si="2">MATCH(W2,T$2:T$12,0)</f>
@@ -783,7 +783,7 @@
       </c>
       <c r="V2" s="4">
         <f>VALUE(RIGHT(S2,LEN(S2)-FIND("   ",S2,1)))</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="W2" s="4">
         <f>SMALL(T$2:T$12,ROW()-1)</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -838,11 +838,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -850,14 +850,14 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="2"/>
@@ -865,15 +865,15 @@
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -912,11 +912,11 @@
         <v>21</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>35</v>
@@ -943,19 +943,19 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6">
         <v>-6</v>
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
@@ -994,27 +994,27 @@
         <v>20</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>36</v>
@@ -1025,47 +1025,47 @@
       </c>
       <c r="U5" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="U6" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1121,28 +1121,28 @@
       </c>
       <c r="U7" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1158,10 +1158,10 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1169,19 +1169,19 @@
       </c>
       <c r="U8" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1190,30 +1190,30 @@
         <v>MIA 30-17</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1221,19 +1221,19 @@
       </c>
       <c r="U9" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -1246,50 +1246,50 @@
         <v>MIA 30-17, KC  27-20</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -1302,34 +1302,34 @@
         <v>MIA 30-17, KC  27-20, MIN 23-21</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
@@ -1337,55 +1337,55 @@
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>DAL 27-20</v>
+        <v>DAL 26-20</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>MIA 30-17, KC  27-20, MIN 23-21, DAL 27-20</v>
+        <v>MIA 30-17, KC  27-20, MIN 23-21, DAL 26-20</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1401,29 +1401,29 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M14" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N14" s="4">
         <v>21</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="T14" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U14" s="4">
         <v>21</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="U17" s="4">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="20"/>
@@ -1503,19 +1503,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="20"/>
@@ -1533,23 +1533,23 @@
     <row r="19" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N19" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="20"/>
@@ -1567,7 +1567,7 @@
     <row r="20" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N20" s="4">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="16"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="U20" s="4">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="20"/>
@@ -1601,7 +1601,7 @@
     <row r="21" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N21" s="4">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="16"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="U21" s="4">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="20"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="U22" s="4">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="20"/>
@@ -1669,7 +1669,7 @@
     <row r="23" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N23" s="4">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="16"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="U23" s="4">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="20"/>
@@ -1703,7 +1703,7 @@
     <row r="24" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N24" s="4">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="16"/>
@@ -1719,25 +1719,25 @@
       </c>
       <c r="U24" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N25" s="4">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="16"/>
@@ -1753,25 +1753,25 @@
       </c>
       <c r="U25" s="4">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N26" s="4">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="16"/>
@@ -1804,14 +1804,14 @@
     </row>
     <row r="28" spans="14:24" x14ac:dyDescent="0.2">
       <c r="P28" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="4">
         <f>SUMPRODUCT(P2:P12,Q16:Q26)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X28" s="4">
         <f>SUMPRODUCT(W2:W12,X16:X26)</f>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAFD9D-8B07-40EC-9FDE-36DCCACBDC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
@@ -121,82 +122,79 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  27   68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  31   48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   46</t>
-  </si>
-  <si>
     <t xml:space="preserve">  23   39</t>
   </si>
   <si>
     <t xml:space="preserve">  30   39</t>
   </si>
   <si>
-    <t xml:space="preserve">  34   36</t>
-  </si>
-  <si>
     <t xml:space="preserve">  17   30</t>
   </si>
   <si>
-    <t xml:space="preserve">  19   29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  28   27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  26   26</t>
-  </si>
-  <si>
     <t xml:space="preserve">  17   80</t>
   </si>
   <si>
-    <t xml:space="preserve">  10   65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  16   56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14   38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3    33</t>
-  </si>
-  <si>
     <t xml:space="preserve">  7    28</t>
   </si>
   <si>
     <t xml:space="preserve">  21   27</t>
   </si>
   <si>
-    <t xml:space="preserve">  9    25</t>
+    <t xml:space="preserve">  27   63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28   28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  26   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9    26</t>
+  </si>
+  <si>
+    <t>GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,10 +623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -715,40 +715,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="D2" s="6">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>MIA</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>30</v>
+        <v>21.5</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
-        <v xml:space="preserve">NE </v>
+        <v>Opp</v>
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -760,7 +760,7 @@
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -771,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D3" s="6">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -824,13 +824,13 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J3" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -842,7 +842,7 @@
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -850,7 +850,7 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>34</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
@@ -884,10 +884,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D4" s="6">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
@@ -895,10 +895,10 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
@@ -906,17 +906,17 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J4" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>35</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -963,24 +963,24 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D5" s="6">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DAL</v>
+        <v>GB</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>21.5</v>
       </c>
       <c r="G5" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
@@ -988,17 +988,17 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J5" s="9">
         <v>20</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>37</v>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>38</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>39</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
@@ -1187,10 +1187,10 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>MIA 30-17</v>
+        <v>NE  20-20</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>40</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
@@ -1239,14 +1239,14 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC  27-20</v>
+        <v>KC  27-24</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>MIA 30-17, KC  27-20</v>
+        <v>NE  20-20, KC  27-24</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="10"/>
@@ -1269,7 +1269,7 @@
         <v>39</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>MIN 23-21</v>
+        <v>MIN 20-17</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>MIA 30-17, KC  27-20, MIN 23-21</v>
+        <v>NE  20-20, KC  27-24, MIN 20-17</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
@@ -1322,10 +1322,10 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
@@ -1345,20 +1345,20 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>DAL 26-20</v>
+        <v>GB 20-20</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>MIA 30-17, KC  27-20, MIN 23-21, DAL 26-20</v>
+        <v>NE  20-20, KC  27-24, MIN 20-17, GB 20-20</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
@@ -1378,10 +1378,10 @@
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
@@ -1819,7 +1819,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="W2:W12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAFD9D-8B07-40EC-9FDE-36DCCACBDC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9868D9E-143E-4AC7-B14F-731F265C8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>vegas</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>GB</t>
+  </si>
+  <si>
+    <t>ATL</t>
   </si>
 </sst>
 </file>
@@ -626,9 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -718,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D2" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
@@ -729,11 +730,11 @@
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -881,35 +882,35 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D4" s="6">
         <v>38</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>MIN</v>
+        <v>ATL</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>MIN</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J4" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>28</v>
@@ -966,10 +967,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D5" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -988,7 +989,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="J5" s="9">
         <v>20</v>
@@ -1187,7 +1188,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>NE  20-20</v>
+        <v>NE  23-20</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>22</v>
@@ -1243,7 +1244,7 @@
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>NE  20-20, KC  27-24</v>
+        <v>NE  23-20, KC  27-24</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>31</v>
@@ -1295,11 +1296,11 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>MIN 20-17</v>
+        <v>ATL 20-16</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>NE  20-20, KC  27-24, MIN 20-17</v>
+        <v>NE  23-20, KC  27-24, ATL 20-16</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>32</v>
@@ -1355,7 +1356,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>NE  20-20, KC  27-24, MIN 20-17, GB 20-20</v>
+        <v>NE  23-20, KC  27-24, ATL 20-16, GB 20-20</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>33</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9868D9E-143E-4AC7-B14F-731F265C8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C535A-E118-433D-8787-69CFE7ED1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -803,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="6">
         <v>51</v>
@@ -814,10 +816,10 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
@@ -825,7 +827,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="9">
         <v>24</v>
@@ -888,7 +890,7 @@
         <v>-5</v>
       </c>
       <c r="D4" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
@@ -896,7 +898,7 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9">
         <v>20</v>
@@ -907,7 +909,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J4" s="9">
         <v>16</v>
@@ -970,7 +972,7 @@
         <v>-3</v>
       </c>
       <c r="D5" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -978,7 +980,7 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9">
         <v>20</v>
@@ -989,10 +991,10 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J5" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>29</v>
@@ -1240,11 +1242,11 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC  27-24</v>
+        <v>KC  26-24</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>NE  23-20, KC  27-24</v>
+        <v>NE  23-20, KC  26-24</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>31</v>
@@ -1300,7 +1302,7 @@
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>NE  23-20, KC  27-24, ATL 20-16</v>
+        <v>NE  23-20, KC  26-24, ATL 20-16</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>32</v>
@@ -1352,11 +1354,11 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>GB 20-20</v>
+        <v>GB 20-17</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>NE  23-20, KC  27-24, ATL 20-16, GB 20-20</v>
+        <v>NE  23-20, KC  26-24, ATL 20-16, GB 20-17</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>33</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3C535A-E118-433D-8787-69CFE7ED1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,14 +59,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">NE </t>
   </si>
   <si>
@@ -122,82 +118,82 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t xml:space="preserve">  23   39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  30   39</t>
-  </si>
-  <si>
     <t xml:space="preserve">  17   30</t>
   </si>
   <si>
     <t xml:space="preserve">  17   80</t>
   </si>
   <si>
-    <t xml:space="preserve">  7    28</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21   27</t>
   </si>
   <si>
-    <t xml:space="preserve">  27   63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  31   50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  34   34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  19   28</t>
-  </si>
-  <si>
     <t xml:space="preserve">  28   28</t>
   </si>
   <si>
-    <t xml:space="preserve">  26   27</t>
-  </si>
-  <si>
     <t xml:space="preserve">  10   68</t>
   </si>
   <si>
-    <t xml:space="preserve">  16   55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   40</t>
-  </si>
-  <si>
     <t xml:space="preserve">  14   39</t>
   </si>
   <si>
-    <t xml:space="preserve">  3    31</t>
-  </si>
-  <si>
     <t xml:space="preserve">  9    26</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>ATL</t>
+    <t xml:space="preserve">  20   57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23   37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7    27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27   65</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,12 +622,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -646,33 +640,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="3">
         <f>Q28</f>
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3">
         <f>X28</f>
@@ -680,59 +672,59 @@
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="X1" s="12"/>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D2" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v xml:space="preserve">NE </v>
+        <v>IND</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
@@ -740,18 +732,18 @@
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
-        <v>Opp</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -763,7 +755,7 @@
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -774,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -794,46 +786,40 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
         <f t="shared" ref="E3:E5" si="4">B3</f>
-        <v xml:space="preserve">KC </v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
-        <v>Opp</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J3" s="9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -841,11 +827,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -853,10 +839,10 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -876,32 +862,32 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D4" s="6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>ATL</v>
+        <v xml:space="preserve">NO </v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
@@ -909,13 +895,13 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -927,7 +913,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -935,10 +921,10 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -950,7 +936,7 @@
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
@@ -963,27 +949,21 @@
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <f t="shared" si="4"/>
-        <v>GB</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
@@ -991,13 +971,13 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1005,11 +985,11 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
@@ -1017,14 +997,14 @@
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="2"/>
@@ -1032,7 +1012,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1040,16 +1020,16 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
@@ -1057,7 +1037,7 @@
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
@@ -1065,18 +1045,18 @@
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
@@ -1088,47 +1068,47 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
@@ -1136,7 +1116,7 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1149,26 +1129,26 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="2"/>
@@ -1184,16 +1164,16 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>NE  23-20</v>
+        <v>IND 23-21</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1201,7 +1181,7 @@
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
@@ -1209,14 +1189,14 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1228,7 +1208,7 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
@@ -1236,28 +1216,28 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC  26-24</v>
+        <v xml:space="preserve"> 17-3</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>NE  23-20, KC  26-24</v>
+        <v>IND 23-21,  17-3</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
@@ -1265,14 +1245,14 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
@@ -1280,11 +1260,11 @@
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
@@ -1292,43 +1272,43 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>ATL 20-16</v>
+        <v>NO  23-20</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>NE  23-20, KC  26-24, ATL 20-16</v>
+        <v>IND 23-21,  17-3, NO  23-20</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
@@ -1348,43 +1328,43 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>GB 20-17</v>
+        <v xml:space="preserve"> 17-3</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>NE  23-20, KC  26-24, ATL 20-16, GB 20-17</v>
+        <v>IND 23-21,  17-3, NO  23-20,  17-3</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
@@ -1392,7 +1372,7 @@
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
@@ -1404,29 +1384,29 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="4">
         <v>21</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="T14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U14" s="4">
         <v>21</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -1510,7 +1490,7 @@
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
@@ -1604,7 +1584,7 @@
     <row r="21" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N21" s="4">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="16"/>
@@ -1638,7 +1618,7 @@
     <row r="22" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N22" s="4">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="16"/>
@@ -1672,7 +1652,7 @@
     <row r="23" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N23" s="4">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="16"/>
@@ -1706,7 +1686,7 @@
     <row r="24" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N24" s="4">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="16"/>
@@ -1740,7 +1720,7 @@
     <row r="25" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N25" s="4">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="16"/>
@@ -1764,7 +1744,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
@@ -1774,7 +1754,7 @@
     <row r="26" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N26" s="4">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="16"/>
@@ -1807,14 +1787,14 @@
     </row>
     <row r="28" spans="14:24" x14ac:dyDescent="0.2">
       <c r="P28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="4">
         <f>SUMPRODUCT(P2:P12,Q16:Q26)</f>
         <v>20</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X28" s="4">
         <f>SUMPRODUCT(W2:W12,X16:X26)</f>
@@ -1822,7 +1802,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
+  <sortState ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF929568-73EF-445A-994F-8183CA58DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
@@ -118,12 +119,6 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t xml:space="preserve">  17   30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   80</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21   27</t>
   </si>
   <si>
@@ -133,15 +128,9 @@
     <t xml:space="preserve">  10   68</t>
   </si>
   <si>
-    <t xml:space="preserve">  14   39</t>
-  </si>
-  <si>
     <t xml:space="preserve">  9    26</t>
   </si>
   <si>
-    <t xml:space="preserve">  20   57</t>
-  </si>
-  <si>
     <t xml:space="preserve">  24   52</t>
   </si>
   <si>
@@ -151,49 +140,61 @@
     <t xml:space="preserve">  23   37</t>
   </si>
   <si>
-    <t xml:space="preserve">  34   33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  38   27</t>
-  </si>
-  <si>
     <t xml:space="preserve">  19   26</t>
   </si>
   <si>
-    <t xml:space="preserve">  16   56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   46</t>
-  </si>
-  <si>
     <t xml:space="preserve">  20   45</t>
   </si>
   <si>
-    <t xml:space="preserve">  24   39</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3    32</t>
   </si>
   <si>
-    <t xml:space="preserve">  7    27</t>
-  </si>
-  <si>
     <t xml:space="preserve">  31   49</t>
   </si>
   <si>
     <t xml:space="preserve">  27   65</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO </t>
+    <t xml:space="preserve">  20   58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  38   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7    26</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,10 +623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -709,26 +712,20 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="str">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7">
         <f>B2</f>
-        <v>IND</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -736,14 +733,14 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -763,10 +760,10 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -778,7 +775,7 @@
       </c>
       <c r="V2" s="4">
         <f>VALUE(RIGHT(S2,LEN(S2)-FIND("   ",S2,1)))</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2" s="4">
         <f>SMALL(T$2:T$12,ROW()-1)</f>
@@ -793,33 +790,39 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
-        <v>0</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="G3" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
-        <v xml:space="preserve">KC </v>
+        <v>Opp</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="J3" s="9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -827,11 +830,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -842,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -850,7 +853,7 @@
       </c>
       <c r="U3" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
@@ -870,21 +873,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6">
         <v>-3</v>
       </c>
       <c r="D4" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">NO </v>
+        <v>DEN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="G4" s="9">
         <v>23</v>
@@ -895,13 +898,13 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J4" s="9">
         <v>20</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -921,10 +924,10 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -936,7 +939,7 @@
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
@@ -951,19 +954,25 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>SEA</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G5" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
@@ -971,13 +980,13 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J5" s="9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1000,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1012,7 +1021,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1020,12 +1029,12 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1048,7 +1057,7 @@
         <v>52</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1068,12 +1077,12 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1096,7 +1105,7 @@
         <v>65</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1108,7 +1117,7 @@
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
@@ -1116,12 +1125,12 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1133,7 +1142,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1144,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1156,7 +1165,7 @@
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
@@ -1170,10 +1179,10 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>IND 23-21</v>
+        <v xml:space="preserve"> 17-3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1185,7 +1194,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
@@ -1196,7 +1205,7 @@
         <v>40</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1222,14 +1231,14 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v xml:space="preserve"> 17-3</v>
+        <v>KC  24-21</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>IND 23-21,  17-3</v>
+        <v xml:space="preserve"> 17-3, KC  24-21</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
@@ -1252,11 +1261,11 @@
         <v>49</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
@@ -1272,24 +1281,24 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>NO  23-20</v>
+        <v>DEN 23-20</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>IND 23-21,  17-3, NO  23-20</v>
+        <v xml:space="preserve"> 17-3, KC  24-21, DEN 23-20</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
@@ -1297,7 +1306,7 @@
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
@@ -1305,22 +1314,22 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="13"/>
@@ -1328,28 +1337,28 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> 17-3</v>
+        <v>SEA 24-21</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>IND 23-21,  17-3, NO  23-20,  17-3</v>
+        <v xml:space="preserve"> 17-3, KC  24-21, DEN 23-20, SEA 24-21</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
@@ -1361,10 +1370,10 @@
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
@@ -1384,7 +1393,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1490,7 +1499,7 @@
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
@@ -1744,7 +1753,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
@@ -1802,7 +1811,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="W2:W12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF929568-73EF-445A-994F-8183CA58DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,10 +875,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D4" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
@@ -898,7 +897,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="J4" s="9">
         <v>20</v>
@@ -1811,7 +1810,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
+  <sortState ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -625,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -796,7 +794,7 @@
         <v>-3</v>
       </c>
       <c r="D3" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -804,7 +802,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="G3" s="9">
         <v>24</v>
@@ -815,7 +813,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="J3" s="9">
         <v>21</v>
@@ -875,10 +873,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
@@ -897,7 +895,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="J4" s="9">
         <v>20</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -142,9 +142,6 @@
     <t xml:space="preserve">  19   26</t>
   </si>
   <si>
-    <t xml:space="preserve">  20   45</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3    32</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t xml:space="preserve">  20   58</t>
   </si>
   <si>
-    <t xml:space="preserve">  34   32</t>
-  </si>
-  <si>
     <t xml:space="preserve">  17   29</t>
   </si>
   <si>
@@ -181,13 +175,19 @@
     <t xml:space="preserve">  24   37</t>
   </si>
   <si>
-    <t xml:space="preserve">  7    26</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
     <t>SEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7    25</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -760,7 +760,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -819,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -850,7 +850,7 @@
       </c>
       <c r="U3" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6">
         <v>-3</v>
@@ -924,7 +924,7 @@
         <v>58</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
         <v>-1</v>
@@ -983,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1006,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1054,7 +1054,7 @@
         <v>52</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1102,7 +1102,7 @@
         <v>65</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1150,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1179,7 +1179,7 @@
         <v xml:space="preserve"> 17-3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1202,7 +1202,7 @@
         <v>40</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
@@ -1347,7 +1347,7 @@
         <v xml:space="preserve"> 17-3, KC  24-21, DEN 23-20, SEA 24-21</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
@@ -1370,11 +1370,11 @@
         <v>26</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
@@ -118,76 +118,76 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t xml:space="preserve">  21   27</t>
-  </si>
-  <si>
     <t xml:space="preserve">  28   28</t>
   </si>
   <si>
-    <t xml:space="preserve">  10   68</t>
-  </si>
-  <si>
     <t xml:space="preserve">  9    26</t>
   </si>
   <si>
-    <t xml:space="preserve">  24   52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  30   40</t>
-  </si>
-  <si>
     <t xml:space="preserve">  23   37</t>
   </si>
   <si>
     <t xml:space="preserve">  19   26</t>
   </si>
   <si>
-    <t xml:space="preserve">  3    32</t>
-  </si>
-  <si>
     <t xml:space="preserve">  31   49</t>
   </si>
   <si>
-    <t xml:space="preserve">  27   65</t>
-  </si>
-  <si>
     <t xml:space="preserve">  20   58</t>
   </si>
   <si>
-    <t xml:space="preserve">  17   29</t>
-  </si>
-  <si>
     <t xml:space="preserve">  38   26</t>
   </si>
   <si>
     <t xml:space="preserve">  17   79</t>
   </si>
   <si>
-    <t xml:space="preserve">  16   53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14   38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   37</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  34   33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7    25</t>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27   66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6    25</t>
   </si>
 </sst>
 </file>
@@ -709,20 +709,26 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>0</v>
+        <v>NE</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -730,11 +736,11 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>29</v>
@@ -749,7 +755,7 @@
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -757,10 +763,10 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -780,7 +786,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -788,38 +794,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
-        <v xml:space="preserve">KC </v>
+        <v>KC</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="G3" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
-        <v>Opp</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J3" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -842,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -854,11 +860,11 @@
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
@@ -870,38 +876,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D4" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DEN</v>
+        <v>MIN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="G4" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>MIN</v>
+        <v>Opp</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="J4" s="9">
         <v>20</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -913,7 +919,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -924,7 +930,7 @@
         <v>58</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -932,11 +938,11 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
@@ -944,7 +950,7 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -952,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>-1</v>
@@ -962,7 +968,7 @@
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>SEA</v>
+        <v>LAR</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
@@ -973,7 +979,7 @@
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>LAR</v>
+        <v>Opp</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
@@ -983,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1006,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1026,12 +1032,12 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
@@ -1051,10 +1057,10 @@
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1066,7 +1072,7 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1074,12 +1080,12 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1099,10 +1105,10 @@
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1114,7 +1120,7 @@
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1139,7 +1145,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1150,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1162,7 +1168,7 @@
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
@@ -1170,16 +1176,16 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v xml:space="preserve"> 17-3</v>
+        <v>NE 19-14</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1191,7 +1197,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
@@ -1199,10 +1205,10 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1214,7 +1220,7 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
@@ -1222,20 +1228,20 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC  24-21</v>
+        <v>KC 27-17</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v xml:space="preserve"> 17-3, KC  24-21</v>
+        <v>NE 19-14, KC 27-17</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
@@ -1258,11 +1264,11 @@
         <v>49</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
@@ -1270,7 +1276,7 @@
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
@@ -1278,20 +1284,20 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>DEN 23-20</v>
+        <v>MIN 24-20</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v xml:space="preserve"> 17-3, KC  24-21, DEN 23-20</v>
+        <v>NE 19-14, KC 27-17, MIN 24-20</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
@@ -1311,18 +1317,18 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
@@ -1334,20 +1340,20 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>SEA 24-21</v>
+        <v>LAR 24-21</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v xml:space="preserve"> 17-3, KC  24-21, DEN 23-20, SEA 24-21</v>
+        <v>NE 19-14, KC 27-17, MIN 24-20, LAR 24-21</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
@@ -1374,7 +1380,7 @@
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="U17" s="4">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="20"/>
@@ -1750,7 +1756,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>vegas</t>
   </si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">  17   79</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>KC</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">  6    25</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>LAC</t>
   </si>
 </sst>
 </file>
@@ -710,25 +713,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D2" s="6">
-        <v>34</v>
+        <v>40.5</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>NE</v>
+        <v>LAC</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>19</v>
+        <v>23.25</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -736,14 +739,14 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -794,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6">
-        <v>-9</v>
+        <v>-6.5</v>
       </c>
       <c r="D3" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -808,10 +811,10 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>26.5</v>
+        <v>24.25</v>
       </c>
       <c r="G3" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
@@ -819,7 +822,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="J3" s="9">
         <v>17</v>
@@ -848,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -875,39 +878,33 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45</v>
-      </c>
-      <c r="E4" s="7" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
         <f t="shared" si="4"/>
-        <v>MIN</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>MIN</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -930,7 +927,7 @@
         <v>58</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -958,35 +955,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D5" s="6">
-        <v>46</v>
+        <v>39.5</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>LAR</v>
+        <v>CLE</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>23.5</v>
+        <v>21.75</v>
       </c>
       <c r="G5" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>LAR</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>22.5</v>
+        <v>17.75</v>
       </c>
       <c r="J5" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>23</v>
@@ -1012,7 +1009,7 @@
         <v>37</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1060,7 +1057,7 @@
         <v>51</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1108,7 +1105,7 @@
         <v>66</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1133,7 +1130,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1156,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1182,10 +1179,10 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>NE 19-14</v>
+        <v>LAC 23-17</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1208,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1234,11 +1231,11 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC 27-17</v>
+        <v>KC 24-17</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>NE 19-14, KC 27-17</v>
+        <v>LAC 23-17, KC 24-17</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>19</v>
@@ -1290,11 +1287,11 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>MIN 24-20</v>
+        <v xml:space="preserve"> 17-3</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>NE 19-14, KC 27-17, MIN 24-20</v>
+        <v>LAC 23-17, KC 24-17,  17-3</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>22</v>
@@ -1320,7 +1317,7 @@
         <v>34</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
@@ -1346,11 +1343,11 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 24-21</v>
+        <v>CLE 23-17</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>NE 19-14, KC 27-17, MIN 24-20, LAR 24-21</v>
+        <v>LAC 23-17, KC 24-17,  17-3, CLE 23-17</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>25</v>
@@ -1376,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
@@ -124,54 +124,18 @@
     <t xml:space="preserve">  9    26</t>
   </si>
   <si>
-    <t xml:space="preserve">  23   37</t>
-  </si>
-  <si>
     <t xml:space="preserve">  19   26</t>
   </si>
   <si>
-    <t xml:space="preserve">  31   49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  38   26</t>
-  </si>
-  <si>
     <t xml:space="preserve">  17   79</t>
   </si>
   <si>
     <t>KC</t>
   </si>
   <si>
-    <t xml:space="preserve">  27   66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   51</t>
-  </si>
-  <si>
     <t xml:space="preserve">  30   38</t>
   </si>
   <si>
-    <t xml:space="preserve">  34   34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10   69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  16   55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   48</t>
-  </si>
-  <si>
     <t xml:space="preserve">  14   40</t>
   </si>
   <si>
@@ -181,16 +145,49 @@
     <t xml:space="preserve">  3    31</t>
   </si>
   <si>
-    <t xml:space="preserve">  21   26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6    25</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>LAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27   65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23   36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6    24</t>
   </si>
 </sst>
 </file>
@@ -713,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6">
         <v>-6</v>
@@ -746,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -758,7 +755,7 @@
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -766,10 +763,10 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -797,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6">
         <v>-6.5</v>
@@ -828,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -836,11 +833,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -851,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -863,7 +860,7 @@
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
@@ -871,7 +868,7 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -904,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -916,7 +913,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -924,10 +921,10 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -935,11 +932,11 @@
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
@@ -947,7 +944,7 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -955,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>-4</v>
@@ -965,7 +962,7 @@
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>CLE</v>
+        <v>LAR</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
@@ -976,7 +973,7 @@
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>LAR</v>
+        <v>Opp</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
@@ -986,7 +983,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -998,7 +995,7 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
@@ -1006,10 +1003,10 @@
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1021,7 +1018,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1054,10 +1051,10 @@
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1069,7 +1066,7 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1077,12 +1074,12 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1094,7 +1091,7 @@
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="10"/>
@@ -1102,10 +1099,10 @@
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1142,7 +1139,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
@@ -1153,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1173,7 +1170,7 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1182,7 +1179,7 @@
         <v>LAC 23-17</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1194,7 +1191,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
@@ -1205,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1225,7 +1222,7 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -1258,14 +1255,14 @@
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
@@ -1273,7 +1270,7 @@
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
@@ -1281,7 +1278,7 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -1294,11 +1291,11 @@
         <v>LAC 23-17, KC 24-17,  17-3</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
@@ -1306,7 +1303,7 @@
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
@@ -1314,18 +1311,18 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
@@ -1343,22 +1340,22 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>CLE 23-17</v>
+        <v>LAR 23-17</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>LAC 23-17, KC 24-17,  17-3, CLE 23-17</v>
+        <v>LAC 23-17, KC 24-17,  17-3, LAR 23-17</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
@@ -1366,14 +1363,14 @@
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
@@ -1385,7 +1382,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1393,7 +1390,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1499,7 +1496,7 @@
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
@@ -1763,7 +1760,7 @@
     <row r="26" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N26" s="4">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="16"/>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>vegas</t>
   </si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">  3    31</t>
   </si>
   <si>
-    <t>LAC</t>
-  </si>
-  <si>
     <t xml:space="preserve">  27   65</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">  6    24</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>BAL</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -710,25 +715,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6">
         <v>-6</v>
       </c>
       <c r="D2" s="6">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>LAC</v>
+        <v>PIT</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>23.25</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -736,14 +741,14 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>17.25</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -797,10 +802,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="6">
-        <v>-6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D3" s="6">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -808,7 +813,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>24.25</v>
+        <v>24.75</v>
       </c>
       <c r="G3" s="9">
         <v>24</v>
@@ -819,13 +824,13 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>17.75</v>
+        <v>22.25</v>
       </c>
       <c r="J3" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -848,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -875,33 +880,39 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>MIN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21.55</v>
       </c>
       <c r="G4" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>MIN</v>
+        <v>Opp</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>18.55</v>
       </c>
       <c r="J4" s="9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -924,7 +935,7 @@
         <v>57</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
@@ -952,28 +963,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D5" s="6">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>LAR</v>
+        <v>BAL</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>21.75</v>
+        <v>24.75</v>
       </c>
       <c r="G5" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>LAR</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
@@ -983,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1006,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1054,7 +1065,7 @@
         <v>52</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1079,7 +1090,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1127,7 +1138,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1176,10 +1187,10 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>LAC 23-17</v>
+        <v>PIT 17-13</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1228,11 +1239,11 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC 24-17</v>
+        <v>KC 24-21</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>LAC 23-17, KC 24-17</v>
+        <v>PIT 17-13, KC 24-21</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>19</v>
@@ -1258,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
@@ -1284,14 +1295,14 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> 17-3</v>
+        <v>MIN 23-20</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>LAC 23-17, KC 24-17,  17-3</v>
+        <v>PIT 17-13, KC 24-21, MIN 23-20</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
@@ -1340,11 +1351,11 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 23-17</v>
+        <v>BAL 24-17</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>LAC 23-17, KC 24-17,  17-3, LAR 23-17</v>
+        <v>PIT 17-13, KC 24-21, MIN 23-20, BAL 24-17</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>21</v>
@@ -1370,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBACA7-B720-4C51-94F1-603BD28C1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,12 +626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -805,7 +804,7 @@
         <v>-2.5</v>
       </c>
       <c r="D3" s="6">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -813,7 +812,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="G3" s="9">
         <v>24</v>
@@ -824,7 +823,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
       <c r="J3" s="9">
         <v>21</v>
@@ -969,7 +968,7 @@
         <v>-7</v>
       </c>
       <c r="D5" s="6">
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -977,7 +976,7 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>24.75</v>
+        <v>23.75</v>
       </c>
       <c r="G5" s="9">
         <v>24</v>
@@ -988,7 +987,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>17.75</v>
+        <v>16.75</v>
       </c>
       <c r="J5" s="9">
         <v>17</v>
@@ -1819,7 +1818,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="W2:W12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBACA7-B720-4C51-94F1-603BD28C1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420CF95-D4F2-4C1A-9BF5-71AB03E63633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>vegas</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">  6    24</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>BAL</t>
   </si>
 </sst>
 </file>
@@ -629,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -714,25 +710,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6">
-        <v>-6</v>
+        <v>-9.5</v>
       </c>
       <c r="D2" s="6">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>PIT</v>
+        <v>KC</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>18</v>
+        <v>23.5</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -740,11 +736,11 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>28</v>
@@ -801,10 +797,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="6">
-        <v>-2.5</v>
+        <v>-9.5</v>
       </c>
       <c r="D3" s="6">
-        <v>47.5</v>
+        <v>-37.5</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -812,10 +808,10 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>25</v>
+        <v>-14</v>
       </c>
       <c r="G3" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
@@ -823,10 +819,10 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>22.5</v>
+        <v>-23.5</v>
       </c>
       <c r="J3" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>29</v>
@@ -882,22 +878,18 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>40.1</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
         <v>MIN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>21.55</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
@@ -905,10 +897,10 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>30</v>
@@ -962,35 +954,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>-7</v>
       </c>
       <c r="D5" s="6">
-        <v>40.5</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>BAL</v>
+        <v>LAR</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>23.75</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>LAR</v>
+        <v>Opp</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>16.75</v>
+        <v>21</v>
       </c>
       <c r="J5" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>31</v>
@@ -1186,7 +1178,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>PIT 17-13</v>
+        <v>KC 24-14</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>34</v>
@@ -1238,11 +1230,11 @@
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC 24-21</v>
+        <v>KC 17-3</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>PIT 17-13, KC 24-21</v>
+        <v>KC 24-14, KC 17-3</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>19</v>
@@ -1294,11 +1286,11 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>MIN 23-20</v>
+        <v>MIN 17-3</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>PIT 17-13, KC 24-21, MIN 23-20</v>
+        <v>KC 24-14, KC 17-3, MIN 17-3</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>35</v>
@@ -1350,11 +1342,11 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>BAL 24-17</v>
+        <v>LAR 28-21</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>PIT 17-13, KC 24-21, MIN 23-20, BAL 24-17</v>
+        <v>KC 24-14, KC 17-3, MIN 17-3, LAR 28-21</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>21</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420CF95-D4F2-4C1A-9BF5-71AB03E63633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>vegas</t>
   </si>
@@ -119,79 +118,85 @@
     <t>@ data table</t>
   </si>
   <si>
-    <t xml:space="preserve">  28   28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9    26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  19   26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   79</t>
-  </si>
-  <si>
     <t>KC</t>
   </si>
   <si>
-    <t xml:space="preserve">  30   38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14   40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3    31</t>
-  </si>
-  <si>
     <t xml:space="preserve">  27   65</t>
   </si>
   <si>
-    <t xml:space="preserve">  20   57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  31   50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  23   36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  34   35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  37   27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10   74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  16   54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21   27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6    24</t>
+    <t xml:space="preserve">  20   55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23   34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28   29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6    26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16   49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7    25</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,12 +625,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -658,7 +661,7 @@
       </c>
       <c r="G1" s="3">
         <f>Q28</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -710,25 +713,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6">
-        <v>-9.5</v>
+        <v>-5.5</v>
       </c>
       <c r="D2" s="6">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>KC</v>
+        <v>DEN</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>23.5</v>
+        <v>20.75</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -736,14 +739,14 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>14</v>
+        <v>15.25</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -763,10 +766,10 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -778,7 +781,7 @@
       </c>
       <c r="V2" s="4">
         <f>VALUE(RIGHT(S2,LEN(S2)-FIND("   ",S2,1)))</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="W2" s="4">
         <f>SMALL(T$2:T$12,ROW()-1)</f>
@@ -786,7 +789,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -794,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
-        <v>-9.5</v>
+        <v>-10</v>
       </c>
       <c r="D3" s="6">
-        <v>-37.5</v>
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -808,10 +811,10 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>-14</v>
+        <v>26.5</v>
       </c>
       <c r="G3" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H5" si="6">IF(B3=A3,"Opp",A3)</f>
@@ -819,13 +822,13 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>-23.5</v>
+        <v>16.5</v>
       </c>
       <c r="J3" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -833,11 +836,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -845,10 +848,10 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -856,11 +859,11 @@
       </c>
       <c r="U3" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
@@ -868,7 +871,7 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -876,34 +879,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>46.5</v>
+      </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>MIN</v>
+        <v>DET</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Opp</v>
+        <v>MIN</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="J4" s="9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -915,7 +922,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -923,30 +930,30 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -957,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>-7</v>
+        <v>-4.5</v>
       </c>
       <c r="D5" s="6">
-        <v>49</v>
+        <v>44.5</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -968,10 +975,10 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="G5" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="6"/>
@@ -979,13 +986,13 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -993,26 +1000,26 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="2"/>
@@ -1020,7 +1027,7 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
@@ -1028,12 +1035,12 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1041,22 +1048,22 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
@@ -1064,11 +1071,11 @@
       </c>
       <c r="U6" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
@@ -1076,35 +1083,35 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1116,7 +1123,7 @@
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
@@ -1124,32 +1131,32 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>26</v>
@@ -1160,11 +1167,11 @@
       </c>
       <c r="U8" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
@@ -1172,16 +1179,16 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>KC 24-14</v>
+        <v>DEN 21-16</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
@@ -1189,22 +1196,22 @@
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1216,7 +1223,7 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
@@ -1224,20 +1231,20 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC 17-3</v>
+        <v>KC 27-16</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>KC 24-14, KC 17-3</v>
+        <v>DEN 21-16, KC 27-16</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
@@ -1245,26 +1252,26 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
@@ -1272,7 +1279,7 @@
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
@@ -1280,51 +1287,51 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>MIN 17-3</v>
+        <v>DET 24-21</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>KC 24-14, KC 17-3, MIN 17-3</v>
+        <v>DEN 21-16, KC 27-16, DET 24-21</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
@@ -1336,47 +1343,47 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 28-21</v>
+        <v>LAR 24-20</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>KC 24-14, KC 17-3, MIN 17-3, LAR 28-21</v>
+        <v>DEN 21-16, KC 27-16, DET 24-21, LAR 24-20</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
@@ -1384,7 +1391,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1392,7 +1399,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1494,19 +1501,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="20"/>
@@ -1524,19 +1531,19 @@
     <row r="19" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N19" s="4">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="19"/>
@@ -1558,7 +1565,7 @@
     <row r="20" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N20" s="4">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="16"/>
@@ -1592,7 +1599,7 @@
     <row r="21" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N21" s="4">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="16"/>
@@ -1626,7 +1633,7 @@
     <row r="22" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N22" s="4">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="16"/>
@@ -1660,7 +1667,7 @@
     <row r="23" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N23" s="4">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="16"/>
@@ -1694,7 +1701,7 @@
     <row r="24" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N24" s="4">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="16"/>
@@ -1728,7 +1735,7 @@
     <row r="25" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N25" s="4">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="16"/>
@@ -1752,7 +1759,7 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
@@ -1762,7 +1769,7 @@
     <row r="26" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N26" s="4">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="16"/>
@@ -1799,7 +1806,7 @@
       </c>
       <c r="Q28" s="4">
         <f>SUMPRODUCT(P2:P12,Q16:Q26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W28" s="4" t="s">
         <v>16</v>
@@ -1810,7 +1817,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
+  <sortState ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -716,10 +716,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="6">
-        <v>-5.5</v>
+        <v>-6.5</v>
       </c>
       <c r="D2" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
@@ -727,11 +727,11 @@
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>20.75</v>
+        <v>20.25</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -739,11 +739,11 @@
       </c>
       <c r="I2" s="8">
         <f>(D2+C2)/2</f>
-        <v>15.25</v>
+        <v>13.75</v>
       </c>
       <c r="J2" s="9">
         <f t="dataTable" ref="J2:J5" dt2D="0" dtr="0" r1="U14"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>20</v>
@@ -803,7 +803,7 @@
         <v>-10</v>
       </c>
       <c r="D3" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -811,7 +811,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="G3" s="9">
         <v>27</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J3" s="9">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="D4" s="6">
         <v>46.5</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="G4" s="9">
         <v>24</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
       <c r="J4" s="9">
         <v>21</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="D5" s="6">
         <v>44.5</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="G5" s="9">
         <v>24</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>20.25</v>
       </c>
       <c r="J5" s="9">
         <v>20</v>
@@ -1185,7 +1185,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>DEN 21-16</v>
+        <v>DEN 20-14</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>32</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>DEN 21-16, KC 27-16</v>
+        <v>DEN 20-14, KC 27-16</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>24</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>DEN 21-16, KC 27-16, DET 24-21</v>
+        <v>DEN 20-14, KC 27-16, DET 24-21</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>25</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>DEN 21-16, KC 27-16, DET 24-21, LAR 24-20</v>
+        <v>DEN 20-14, KC 27-16, DET 24-21, LAR 24-20</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>33</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -803,7 +803,7 @@
         <v>-10</v>
       </c>
       <c r="D3" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -811,7 +811,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="G3" s="9">
         <v>27</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J3" s="9">
         <v>16</v>
@@ -885,7 +885,7 @@
         <v>-3</v>
       </c>
       <c r="D4" s="6">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9">
         <v>24</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
-        <v>21.75</v>
+        <v>22</v>
       </c>
       <c r="J4" s="9">
         <v>21</v>
@@ -967,7 +967,7 @@
         <v>-4</v>
       </c>
       <c r="D5" s="6">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="5"/>
-        <v>24.25</v>
+        <v>25</v>
       </c>
       <c r="G5" s="9">
         <v>24</v>
@@ -986,10 +986,10 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>20.25</v>
+        <v>21</v>
       </c>
       <c r="J5" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>22</v>
@@ -1349,11 +1349,11 @@
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 24-20</v>
+        <v>LAR 24-21</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>DEN 20-14, KC 27-16, DET 24-21, LAR 24-20</v>
+        <v>DEN 20-14, KC 27-16, DET 24-21, LAR 24-21</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>33</v>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -628,7 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/pred tool.xlsx
+++ b/pred tool.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B24687-48EA-442D-A35A-D0CDBA8092DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Burkhardt Thomas</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>vegas</t>
   </si>
@@ -121,82 +122,79 @@
     <t>KC</t>
   </si>
   <si>
-    <t xml:space="preserve">  27   65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20   55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  31   52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  23   34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  28   29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  19   25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6    26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21   26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24   55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  30   41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  34   38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  21   24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17   83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10   76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13   49</t>
-  </si>
-  <si>
     <t xml:space="preserve">  16   49</t>
   </si>
   <si>
-    <t xml:space="preserve">  20   49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14   35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3    29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7    25</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>DET</t>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  27   67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  31   49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30   43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  34   36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23   35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  28   28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  37   26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19   24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17   80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10   78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20   52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13   48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14   34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24   33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3    30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22   27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21   25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6    24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,12 +623,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -663,7 +659,7 @@
       </c>
       <c r="G1" s="3">
         <f>Q28</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -715,25 +711,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
-        <v>-6.5</v>
+        <v>-13</v>
       </c>
       <c r="D2" s="6">
-        <v>34</v>
+        <v>40.5</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>B2</f>
-        <v>DEN</v>
+        <v>BUF</v>
       </c>
       <c r="F2" s="8">
         <f>(D2+C2)/2-C2</f>
-        <v>20.25</v>
+        <v>26.75</v>
       </c>
       <c r="G2" s="9">
         <f t="dataTable" ref="G2:G5" dt2D="0" dtr="0" r1="N14"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>IF(B2=A2,"Opp",A2)</f>
@@ -748,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="4">
         <f>VALUE(LEFT(L2,FIND("   ",L2,1)-1))</f>
@@ -756,11 +752,11 @@
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N12" si="0">MATCH(P2,M$2:M$12,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="4">
         <f>VALUE(RIGHT(L2,LEN(L2)-FIND("   ",L2,1)))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P2" s="4">
         <f>SMALL(M$2:M$12,ROW()-1)</f>
@@ -768,10 +764,10 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q12" si="1">INDEX(O$2:O$12,$N2)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="4">
         <f>VALUE(LEFT(S2,FIND("   ",S2,1)-1))</f>
@@ -783,7 +779,7 @@
       </c>
       <c r="V2" s="4">
         <f>VALUE(RIGHT(S2,LEN(S2)-FIND("   ",S2,1)))</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W2" s="4">
         <f>SMALL(T$2:T$12,ROW()-1)</f>
@@ -791,7 +787,7 @@
       </c>
       <c r="X2" s="4">
         <f t="shared" ref="X2:X12" si="3">INDEX(V$2:V$12,$N2)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -802,10 +798,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="6">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D3" s="6">
-        <v>41</v>
+        <v>44.5</v>
       </c>
       <c r="E3" s="7" t="str">
         <f t="shared" ref="E3:E5" si="4">B3</f>
@@ -813,7 +809,7 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F5" si="5">(D3+C3)/2-C3</f>
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="G3" s="9">
         <v>27</v>
@@ -824,13 +820,13 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="7">(D3+C3)/2</f>
-        <v>15.5</v>
+        <v>18.75</v>
       </c>
       <c r="J3" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="8">VALUE(LEFT(L3,FIND("   ",L3,1)-1))</f>
@@ -838,11 +834,11 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O12" si="9">VALUE(RIGHT(L3,LEN(L3)-FIND("   ",L3,1)))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P12" si="10">SMALL(M$2:M$12,ROW()-1)</f>
@@ -850,10 +846,10 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T12" si="11">VALUE(LEFT(S3,FIND("   ",S3,1)-1))</f>
@@ -861,11 +857,11 @@
       </c>
       <c r="U3" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V12" si="12">VALUE(RIGHT(S3,LEN(S3)-FIND("   ",S3,1)))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" ref="W3:W12" si="13">SMALL(T$2:T$12,ROW()-1)</f>
@@ -873,7 +869,7 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -881,38 +877,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D4" s="6">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DET</v>
+        <v>MIN</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>24.25</v>
       </c>
       <c r="G4" s="9">
         <v>24</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>MIN</v>
+        <v>Opp</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="7"/>
+        <v>22.25</v>
+      </c>
+      <c r="J4" s="9">
         <v>22</v>
       </c>
-      <c r="J4" s="9">
-        <v>21</v>
-      </c>
       <c r="L4" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="8"/>
@@ -924,7 +920,7 @@
       </c>
       <c r="O4" s="4">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="10"/>
@@ -932,30 +928,30 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -966,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>-4</v>
+        <v>-5.5</v>
       </c>
       <c r="D5" s="6">
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="4"/>
@@ -988,13 +984,13 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J5" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="8"/>
@@ -1002,22 +998,22 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="11"/>
@@ -1025,7 +1021,7 @@
       </c>
       <c r="U5" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="12"/>
@@ -1033,16 +1029,16 @@
       </c>
       <c r="W5" s="4">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="8"/>
@@ -1050,47 +1046,47 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="8"/>
@@ -1098,22 +1094,22 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="11"/>
@@ -1121,24 +1117,24 @@
       </c>
       <c r="U7" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
@@ -1146,22 +1142,22 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="11"/>
@@ -1169,51 +1165,51 @@
       </c>
       <c r="U8" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="str">
         <f>B2&amp;" "&amp;G2&amp;"-"&amp;J2</f>
-        <v>DEN 20-14</v>
+        <v>BUF 27-14</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="11"/>
@@ -1221,71 +1217,71 @@
       </c>
       <c r="U9" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="str">
         <f t="shared" ref="B10:B12" si="14">B3&amp;" "&amp;G3&amp;"-"&amp;J3</f>
-        <v>KC 27-16</v>
+        <v>KC 27-20</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>B9&amp;", "&amp;B10</f>
-        <v>DEN 20-14, KC 27-16</v>
+        <v>BUF 27-14, KC 27-20</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="3"/>
@@ -1295,37 +1291,37 @@
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>DET 24-21</v>
+        <v>MIN 24-22</v>
       </c>
       <c r="C11" s="11" t="str">
         <f>C10&amp;", "&amp;B11</f>
-        <v>DEN 20-14, KC 27-16, DET 24-21</v>
+        <v>BUF 27-14, KC 27-20, MIN 24-22</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="11"/>
@@ -1333,40 +1329,40 @@
       </c>
       <c r="U11" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>LAR 24-21</v>
+        <v>LAR 24-20</v>
       </c>
       <c r="C12" s="11" t="str">
         <f>C11&amp;", "&amp;B12</f>
-        <v>DEN 20-14, KC 27-16, DET 24-21, LAR 24-21</v>
+        <v>BUF 27-14, KC 27-20, MIN 24-22, LAR 24-20</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
@@ -1374,18 +1370,18 @@
       </c>
       <c r="P12" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="2"/>
@@ -1393,7 +1389,7 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="13"/>
@@ -1401,7 +1397,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1503,19 +1499,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="20"/>
@@ -1533,23 +1529,23 @@
     <row r="19" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N19" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="20"/>
@@ -1567,7 +1563,7 @@
     <row r="20" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N20" s="4">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="16"/>
@@ -1583,7 +1579,7 @@
       </c>
       <c r="U20" s="4">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="20"/>
@@ -1601,7 +1597,7 @@
     <row r="21" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N21" s="4">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="16"/>
@@ -1617,7 +1613,7 @@
       </c>
       <c r="U21" s="4">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="20"/>
@@ -1635,7 +1631,7 @@
     <row r="22" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N22" s="4">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="16"/>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="U22" s="4">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="20"/>
@@ -1669,7 +1665,7 @@
     <row r="23" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N23" s="4">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="16"/>
@@ -1685,7 +1681,7 @@
       </c>
       <c r="U23" s="4">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="20"/>
@@ -1703,7 +1699,7 @@
     <row r="24" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N24" s="4">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="16"/>
@@ -1719,25 +1715,25 @@
       </c>
       <c r="U24" s="4">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N25" s="4">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="16"/>
@@ -1753,25 +1749,25 @@
       </c>
       <c r="U25" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="21"/>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N26" s="4">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="16"/>
@@ -1808,7 +1804,7 @@
       </c>
       <c r="Q28" s="4">
         <f>SUMPRODUCT(P2:P12,Q16:Q26)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" s="4" t="s">
         <v>16</v>
@@ -1819,7 +1815,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="W2:W12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W12">
     <sortCondition ref="W2"/>
   </sortState>
   <mergeCells count="4">
